--- a/MOMINPET3.xlsx
+++ b/MOMINPET3.xlsx
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +155,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +172,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,11 +227,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -226,9 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,6 +248,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,413 +577,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>2096</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>2887</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>6092</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>3261</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>3430</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>3133</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>3261</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>2310</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="11">
         <v>326</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="11">
         <v>1657</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="9">
         <v>694</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>1872</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="9">
         <v>3488</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>839</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>1586</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>5266</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>671</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>5321</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>3131</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>1102</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>1059</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>1637</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="9"/>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>6027</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>3519</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>260</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>2631</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>14577</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <f>SUM(B4:B30)</f>
         <v>82133</v>
       </c>
@@ -969,6 +993,7 @@
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MOMINPET3.xlsx
+++ b/MOMINPET3.xlsx
@@ -242,23 +242,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,14 +577,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -604,7 +604,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>2096</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -618,7 +618,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>2887</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -632,7 +632,7 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>6092</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -646,7 +646,7 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>3261</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -660,7 +660,7 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>3430</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -674,7 +674,7 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>3133</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -688,7 +688,7 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>3261</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -702,7 +702,7 @@
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>2310</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -716,7 +716,7 @@
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>326</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -730,7 +730,7 @@
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>1657</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -744,7 +744,7 @@
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>694</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -758,7 +758,7 @@
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>1872</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -772,7 +772,7 @@
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>3488</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -786,7 +786,7 @@
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="10">
         <v>839</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -800,7 +800,7 @@
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="7">
         <v>1586</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -814,7 +814,7 @@
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>5266</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -828,7 +828,7 @@
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>671</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -907,7 +907,7 @@
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -966,10 +966,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="11">
         <v>14577</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -980,7 +980,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="1">

--- a/MOMINPET3.xlsx
+++ b/MOMINPET3.xlsx
@@ -251,13 +251,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,14 +577,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -716,7 +716,7 @@
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>326</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -786,7 +786,7 @@
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>839</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -842,7 +842,7 @@
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <v>5321</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -856,7 +856,7 @@
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="7">
         <v>3131</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -870,7 +870,7 @@
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="7">
         <v>1102</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -884,7 +884,7 @@
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="7">
         <v>1059</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -898,7 +898,7 @@
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="7">
         <v>1637</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -941,7 +941,7 @@
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="7">
         <v>260</v>
       </c>
       <c r="C28" s="4" t="s">

--- a/MOMINPET3.xlsx
+++ b/MOMINPET3.xlsx
@@ -254,10 +254,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,14 +577,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -955,7 +955,7 @@
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="7">
         <v>2631</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -969,7 +969,7 @@
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>14577</v>
       </c>
       <c r="C30" s="4" t="s">

--- a/MOMINPET3.xlsx
+++ b/MOMINPET3.xlsx
@@ -227,16 +227,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,14 +574,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -604,7 +601,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2096</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -618,10 +615,10 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2887</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -632,7 +629,7 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>6092</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -646,7 +643,7 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>3261</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -660,7 +657,7 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>3430</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -674,7 +671,7 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>3133</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -688,7 +685,7 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>3261</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -702,7 +699,7 @@
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2310</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -716,7 +713,7 @@
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>326</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -730,13 +727,13 @@
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>1657</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -744,7 +741,7 @@
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>694</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -758,7 +755,7 @@
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1872</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -772,7 +769,7 @@
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>3488</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -786,7 +783,7 @@
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>839</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -800,7 +797,7 @@
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>1586</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -814,10 +811,10 @@
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>5266</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -828,7 +825,7 @@
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>671</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -842,10 +839,10 @@
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>5321</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -856,10 +853,10 @@
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>3131</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -870,7 +867,7 @@
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>1102</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -884,7 +881,7 @@
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>1059</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -898,7 +895,7 @@
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>1637</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -907,19 +904,19 @@
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>6027</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -927,7 +924,7 @@
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <v>3519</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -941,10 +938,10 @@
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>260</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -955,7 +952,7 @@
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>2631</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -966,13 +963,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>14577</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -980,7 +977,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="1">

--- a/MOMINPET3.xlsx
+++ b/MOMINPET3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>village</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Burugupally</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Chakrampally</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>MOMINPET PHASE 3</t>
+  </si>
+  <si>
+    <t>Mekavanampally Thanda</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,8 +257,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,19 +583,20 @@
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -611,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -625,9 +638,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>6092</v>
@@ -639,9 +652,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6">
         <v>3261</v>
@@ -653,9 +666,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6">
         <v>3430</v>
@@ -667,9 +680,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6">
         <v>3133</v>
@@ -681,9 +694,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6">
         <v>3261</v>
@@ -695,9 +708,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6">
         <v>2310</v>
@@ -709,23 +722,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11">
+        <v>326</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="8">
-        <v>326</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B13" s="7">
         <v>1657</v>
@@ -736,24 +752,30 @@
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10">
+        <v>694</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="6">
-        <v>694</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B15" s="6">
         <v>1872</v>
@@ -764,10 +786,13 @@
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6">
         <v>3488</v>
@@ -778,10 +803,13 @@
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="8">
         <v>839</v>
@@ -795,7 +823,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6">
         <v>1586</v>
@@ -809,7 +837,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6">
         <v>5266</v>
@@ -823,9 +851,9 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="6">
+        <v>21</v>
+      </c>
+      <c r="B20" s="10">
         <v>671</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -837,7 +865,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="6">
         <v>5321</v>
@@ -851,7 +879,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="6">
         <v>3131</v>
@@ -865,7 +893,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="6">
         <v>1102</v>
@@ -879,7 +907,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6">
         <v>1059</v>
@@ -893,7 +921,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6">
         <v>1637</v>
@@ -908,7 +936,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="6">
         <v>6027</v>
@@ -917,12 +945,12 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="6">
         <v>3519</v>
@@ -936,9 +964,9 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="6">
+        <v>29</v>
+      </c>
+      <c r="B28" s="10">
         <v>260</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -950,7 +978,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="6">
         <v>2631</v>
@@ -964,7 +992,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="9">
         <v>14577</v>
@@ -978,7 +1006,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <f>SUM(B4:B30)</f>

--- a/MOMINPET3.xlsx
+++ b/MOMINPET3.xlsx
@@ -162,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +178,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,11 +241,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -260,10 +250,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -573,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,14 +577,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -614,7 +604,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>2096</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -622,13 +612,16 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2887</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -636,13 +629,16 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>6092</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -650,13 +646,16 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3261</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -664,19 +663,25 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3430</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
     </row>
@@ -684,7 +689,7 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3133</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -692,13 +697,16 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>3261</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -706,13 +714,16 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>2310</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -720,13 +731,16 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>326</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -734,6 +748,9 @@
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
@@ -743,7 +760,7 @@
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1657</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -751,6 +768,9 @@
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -760,7 +780,7 @@
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>694</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -768,6 +788,9 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -777,7 +800,7 @@
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>1872</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -785,6 +808,9 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -794,7 +820,7 @@
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>3488</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -802,6 +828,9 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -811,7 +840,7 @@
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>839</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -819,13 +848,16 @@
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1586</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -833,13 +865,16 @@
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>5266</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -847,13 +882,16 @@
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>671</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -861,13 +899,16 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>5321</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -875,13 +916,16 @@
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>3131</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -889,13 +933,16 @@
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>1102</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -903,13 +950,16 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>1059</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -917,13 +967,16 @@
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>1637</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -932,13 +985,15 @@
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>6027</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -946,13 +1001,16 @@
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="E26">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>3519</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -960,13 +1018,16 @@
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>260</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -974,13 +1035,16 @@
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>2631</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -988,13 +1052,16 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="7">
         <v>14577</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1002,6 +1069,9 @@
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E30">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
